--- a/biology/Médecine/Dr_Death/Dr_Death.xlsx
+++ b/biology/Médecine/Dr_Death/Dr_Death.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Death est une série télévisée dramatique américaine créée par Patrick Macmanus et diffusée depuis l'été 2021 sur la plateforme de streaming Peacock.
 L'intrigue s'inspire de l'histoire de Christopher Duntsch, un neurochirurgien Texan reconnu coupable pour fautes professionnelles graves ayant entraîné la mort de plusieurs patients. La série s'inspire d'une série de podcasts diffusée sur Wondery Media.
-En France, elle est proposée sur la plateforme de SVOD Starzplay depuis le 12 septembre 2021[1].
+En France, elle est proposée sur la plateforme de SVOD Starzplay depuis le 12 septembre 2021.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christopher Duntsch est un neurochirurgien qui semble en apparence tout à fait normal. Il sera condamné pour faute professionnelle et surnommé Dr D. ou Dr Death (« Docteur la Mort »).
 </t>
@@ -546,15 +560,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Saison 1
-Principaux
-Joshua Jackson (VF : Alexandre Gillet) : Dr Christopher Duntsch
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Principaux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joshua Jackson (VF : Alexandre Gillet) : Dr Christopher Duntsch
 Grace Gummer (VF : Marie Nonnenmacher) : Kim Morgan
 Christian Slater (VF : Xavier Béja) : Randall Kirby
 Alec Baldwin (VF : Bernard Lanneau) : Robert Henderson
-AnnaSophia Robb : Michelle Shughart
-Secondaires
-Fred Lehne : Don Duntsch
+AnnaSophia Robb : Michelle Shughart</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Secondaires</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fred Lehne : Don Duntsch
 Hubert Point-Du Jour : l'infirmier circulant Josh Baker
 Maryann Plunkett (VF : Caroline Jacquin) : Madeline Beyer
 Grainger Hines (VF : Gérard Sergue) : Earl Burke
@@ -565,62 +625,281 @@
 Dashiell Eaves (en) : Stan Novak
 Jennifer Kim : Stephanie Wu
 Kelly Kirklyn : Dorothy Burke
-Marceline Hugot (en) (VF : Anne Plumet) : Rose Keller
-Saison 2
-Principaux
-Édgar Ramírez : Paolo Macchiarini
+Marceline Hugot (en) (VF : Anne Plumet) : Rose Keller</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Principaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Édgar Ramírez : Paolo Macchiarini
 Mandy Moore : Benita Alexander
 Ashley Madekwe : Dr Ana Lasbrey
 Gustaf Hammarsten : Dr Anders Svensson
-Luke Kirby (VF : Anthony Audoux) : Dr Nathan Gamelli
-Secondaires
-Judy Reyes (VF : Chantal Baroin) : Kim Verdi
+Luke Kirby (VF : Anthony Audoux) : Dr Nathan Gamelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Secondaires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Judy Reyes (VF : Chantal Baroin) : Kim Verdi
 Annika Boras (en) : Marja
 Rita Volk : Yulia Tuulik
 Greg Hildreth : Luke
 Celestina Harris : Lizzi
 Jack Davenport : Nils Headley
-Femi Olagoke : Andemariam Beyene
-Invités
-Carrie Preston (VF : Marion Valantine) : Robbie McClung (saison 1)
- Source et légende : version française (VF) sur RS Doublage[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dr_Death</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Femi Olagoke : Andemariam Beyene</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carrie Preston (VF : Marion Valantine) : Robbie McClung (saison 1)
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement
-En octobre 2018, NBCUniversal annonce que Patrick Macmanus va adapter en mini-série la série de podcasts Dr. Death. La production sera notamment assurée par Todd Black, Jason Blumenthal et Steve Tisch via Escape Artists[3]. En septembre 2019, NBCUniversal annonce que la série sera diffusée sur sa plateforme de streaming, Peacock[4]. En janvier 2020, Stephen Frears est annoncé comme réalisateur des deux premiers épisodes[5]. En septembre 2020, il est finalement remplacé par Maggie Kiley[6].
-Choix des interprètes
-Le 9 août 2019, Jamie Dornan est initialement choisi pour incarner Christopher Duntsch. Cependant, le 12 octobre 2020, il est remplacé par Joshua Jackson, pour des raisons d'emploi du temps[7].
-Tournage
-Le tournage a lieu au Nouveau-Mexique, notamment à Albuquerque et Moriarty[8].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2018, NBCUniversal annonce que Patrick Macmanus va adapter en mini-série la série de podcasts Dr. Death. La production sera notamment assurée par Todd Black, Jason Blumenthal et Steve Tisch via Escape Artists. En septembre 2019, NBCUniversal annonce que la série sera diffusée sur sa plateforme de streaming, Peacock. En janvier 2020, Stephen Frears est annoncé comme réalisateur des deux premiers épisodes. En septembre 2020, il est finalement remplacé par Maggie Kiley.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Choix des interprètes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 9 août 2019, Jamie Dornan est initialement choisi pour incarner Christopher Duntsch. Cependant, le 12 octobre 2020, il est remplacé par Joshua Jackson, pour des raisons d'emploi du temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu au Nouveau-Mexique, notamment à Albuquerque et Moriarty.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Réalisation : Maggie Kiley (2 épisodes), Jennifer Morrison (2 épisodes) et So Yong Kim (4 épisodes)
 Scénario : Ashley Michel Hoban, Patrick Macmanus et Ahmadu Garba
 Photographie : Kat Westergaard et Zack Galler
@@ -634,74 +913,115 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dr_Death</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 17 mai 2021, la première bande-annonce révèle une diffusion prévue pour l'été 2021[9].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 mai 2021, la première bande-annonce révèle une diffusion prévue pour l'été 2021.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dr_Death</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Saison 1 (2021)
-Premiers soupçons (Diplos)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Saison 1 (2021)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Premiers soupçons (Diplos)
 Les racines du mal (Ain't No Bum)
 Un bilan satisfaisant (Dock Ellis)
 Par tous les moyens (An Occurrence at Randall Kirby's Sink)
 Avant la chute (The $?!&amp; in the Bed)
 Le rasoir d'Ockham (Occam's Razor)
 Un colosse aux pieds d'argile (Feet of Clay)
-Plus jamais (Hardwood Floors)
-Saison 2 (2023)
-Titre français inconnu (Like Magic)
+Plus jamais (Hardwood Floors)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dr_Death</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr_Death</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Saison 2 (2023)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Titre français inconnu (Like Magic)
 Titre français inconnu (Worth the Risk)
 Titre français inconnu (The Horizon)
 Titre français inconnu (Tarantela Telaraña)
